--- a/Controller&JSP Matching.xlsx
+++ b/Controller&JSP Matching.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\645692\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>controll/method</t>
   </si>
@@ -111,6 +107,9 @@
   </si>
   <si>
     <t>VendorReference.java</t>
+  </si>
+  <si>
+    <t>vetterRequirement.java</t>
   </si>
 </sst>
 </file>
@@ -214,53 +213,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,201 +556,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10" t="s">
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="13" t="s">
         <v>28</v>
       </c>
     </row>
